--- a/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>productname</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -619,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -775,201 +778,209 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
+      <c r="A21" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B28" s="13">
         <v>42005</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580"/>
+    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>productname</t>
   </si>
@@ -122,9 +122,6 @@
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>maximumallowedaoutstandingbalance</t>
-  </si>
-  <si>
     <t>preclosureinterestcalculationrule</t>
   </si>
   <si>
@@ -219,6 +216,15 @@
   </si>
   <si>
     <t>frequencydateforrecalculation</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -305,6 +311,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -752,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -760,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,10 +796,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,12 +823,12 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -829,7 +836,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="13">
         <v>42005</v>
@@ -837,18 +844,18 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="5">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -860,99 +867,107 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
+      <c r="A31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -965,9 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -977,10 +990,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -678,7 +678,7 @@
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -980,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/632-MS-EI-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -197,9 +197,6 @@
     <t>overpaymentliability</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>Same as repayment period</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -312,6 +312,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +622,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -633,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -758,8 +761,8 @@
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
+      <c r="B17" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +770,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -799,7 +802,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,12 +826,12 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -836,7 +839,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="13">
         <v>42005</v>
@@ -852,7 +855,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="5">
         <v>10000</v>
@@ -868,7 +871,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>8</v>
@@ -990,10 +993,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
